--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,41 @@
         <v>1591700</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>627300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43640,6 +43640,41 @@
         <v>627300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>366900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43675,6 +43675,41 @@
         <v>366900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>219100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43710,6 +43710,41 @@
         <v>219100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>138800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43745,6 +43745,41 @@
         <v>138800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1279900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43780,6 +43780,41 @@
         <v>1279900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>412400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43815,6 +43815,41 @@
         <v>412400</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>294000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43850,6 +43850,41 @@
         <v>294000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>474300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43885,6 +43885,41 @@
         <v>474300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1411100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43920,6 +43920,41 @@
         <v>1411100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1549200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43955,6 +43955,41 @@
         <v>1549200</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>596900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43990,6 +43990,41 @@
         <v>596900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>405900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44025,6 +44025,76 @@
         <v>405900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>396900</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1917900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44095,6 +44095,76 @@
         <v>1917900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1154600</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>781200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44165,6 +44165,41 @@
         <v>781200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1268200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44200,6 +44200,41 @@
         <v>1268200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1246500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44235,6 +44235,41 @@
         <v>1246500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>250800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44270,6 +44270,41 @@
         <v>250800</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1998700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44305,6 +44305,76 @@
         <v>1998700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>843400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>887700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44375,6 +44375,41 @@
         <v>887700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>696000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44410,6 +44410,41 @@
         <v>696000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>813100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1868"/>
+  <dimension ref="A1:I1869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66390,6 +66390,41 @@
         <v>813100</v>
       </c>
     </row>
+    <row r="1869">
+      <c r="A1869" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1869" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1869" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1869" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1869" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1869" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G1869" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1869" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I1869" t="n">
+        <v>586300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1869"/>
+  <dimension ref="A1:I1870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66425,6 +66425,41 @@
         <v>586300</v>
       </c>
     </row>
+    <row r="1870">
+      <c r="A1870" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1870" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1870" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1870" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1870" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1870" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G1870" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H1870" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I1870" t="n">
+        <v>735500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1870"/>
+  <dimension ref="A1:I1871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66460,6 +66460,41 @@
         <v>735500</v>
       </c>
     </row>
+    <row r="1871">
+      <c r="A1871" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1871" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1871" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1871" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1871" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F1871" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G1871" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H1871" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I1871" t="n">
+        <v>433800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1871"/>
+  <dimension ref="A1:I1872"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66495,6 +66495,41 @@
         <v>433800</v>
       </c>
     </row>
+    <row r="1872">
+      <c r="A1872" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1872" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1872" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1872" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1872" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1872" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G1872" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="H1872" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="I1872" t="n">
+        <v>564300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1872"/>
+  <dimension ref="A1:I1873"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66530,6 +66530,41 @@
         <v>564300</v>
       </c>
     </row>
+    <row r="1873">
+      <c r="A1873" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1873" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1873" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1873" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1873" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F1873" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="G1873" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H1873" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1873" t="n">
+        <v>675000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1873"/>
+  <dimension ref="A1:I1874"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66565,6 +66565,41 @@
         <v>675000</v>
       </c>
     </row>
+    <row r="1874">
+      <c r="A1874" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1874" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1874" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1874" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1874" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F1874" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G1874" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H1874" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I1874" t="n">
+        <v>234200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1874"/>
+  <dimension ref="A1:I1875"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66600,6 +66600,41 @@
         <v>234200</v>
       </c>
     </row>
+    <row r="1875">
+      <c r="A1875" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1875" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1875" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1875" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1875" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F1875" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="G1875" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1875" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I1875" t="n">
+        <v>456600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1875"/>
+  <dimension ref="A1:I1876"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66635,6 +66635,41 @@
         <v>456600</v>
       </c>
     </row>
+    <row r="1876">
+      <c r="A1876" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1876" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1876" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1876" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1876" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1876" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G1876" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H1876" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I1876" t="n">
+        <v>701600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1876"/>
+  <dimension ref="A1:I1877"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66670,6 +66670,41 @@
         <v>701600</v>
       </c>
     </row>
+    <row r="1877">
+      <c r="A1877" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1877" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1877" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1877" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1877" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1877" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G1877" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H1877" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I1877" t="n">
+        <v>343400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1877"/>
+  <dimension ref="A1:I1878"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66705,6 +66705,41 @@
         <v>343400</v>
       </c>
     </row>
+    <row r="1878">
+      <c r="A1878" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1878" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1878" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1878" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1878" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F1878" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G1878" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H1878" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I1878" t="n">
+        <v>493100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1878"/>
+  <dimension ref="A1:I1879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66740,6 +66740,41 @@
         <v>493100</v>
       </c>
     </row>
+    <row r="1879">
+      <c r="A1879" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1879" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1879" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1879" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1879" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1879" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G1879" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H1879" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1879" t="n">
+        <v>403000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1879"/>
+  <dimension ref="A1:I1880"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66775,6 +66775,41 @@
         <v>403000</v>
       </c>
     </row>
+    <row r="1880">
+      <c r="A1880" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1880" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1880" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1880" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1880" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F1880" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1880" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1880" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1880" t="n">
+        <v>396100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1880"/>
+  <dimension ref="A1:I1881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66810,6 +66810,41 @@
         <v>396100</v>
       </c>
     </row>
+    <row r="1881">
+      <c r="A1881" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1881" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1881" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1881" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1881" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F1881" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1881" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1881" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1881" t="n">
+        <v>489600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1881"/>
+  <dimension ref="A1:I1882"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66845,6 +66845,41 @@
         <v>489600</v>
       </c>
     </row>
+    <row r="1882">
+      <c r="A1882" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1882" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1882" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1882" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1882" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F1882" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G1882" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H1882" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1882" t="n">
+        <v>149200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1882"/>
+  <dimension ref="A1:I1883"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66880,6 +66880,41 @@
         <v>149200</v>
       </c>
     </row>
+    <row r="1883">
+      <c r="A1883" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1883" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1883" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1883" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1883" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1883" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1883" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H1883" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1883" t="n">
+        <v>217300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1980"/>
+  <dimension ref="A1:I1981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70310,6 +70310,41 @@
         <v>217300</v>
       </c>
     </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>120100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1981"/>
+  <dimension ref="A1:I1982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70345,6 +70345,41 @@
         <v>120100</v>
       </c>
     </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>330400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1982"/>
+  <dimension ref="A1:I1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70380,6 +70380,41 @@
         <v>330400</v>
       </c>
     </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>192800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1983"/>
+  <dimension ref="A1:I1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70415,6 +70415,41 @@
         <v>192800</v>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>284500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1984"/>
+  <dimension ref="A1:I1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70450,6 +70450,41 @@
         <v>284500</v>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>99100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1985"/>
+  <dimension ref="A1:I1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70485,6 +70485,41 @@
         <v>99100</v>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>66200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1986"/>
+  <dimension ref="A1:I1987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70520,6 +70520,41 @@
         <v>66200</v>
       </c>
     </row>
+    <row r="1987">
+      <c r="A1987" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1987" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1987" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1987" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1987" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F1987" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G1987" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="H1987" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="I1987" t="n">
+        <v>51400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1987"/>
+  <dimension ref="A1:I1988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70555,6 +70555,41 @@
         <v>51400</v>
       </c>
     </row>
+    <row r="1988">
+      <c r="A1988" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1988" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1988" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1988" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1988" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1988" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G1988" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H1988" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="I1988" t="n">
+        <v>160200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1988"/>
+  <dimension ref="A1:I1989"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70590,6 +70590,41 @@
         <v>160200</v>
       </c>
     </row>
+    <row r="1989">
+      <c r="A1989" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1989" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1989" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1989" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1989" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1989" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G1989" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1989" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1989" t="n">
+        <v>90900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1989"/>
+  <dimension ref="A1:I1990"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70625,6 +70625,41 @@
         <v>90900</v>
       </c>
     </row>
+    <row r="1990">
+      <c r="A1990" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1990" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1990" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F1990" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1990" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1990" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I1990" t="n">
+        <v>136800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1990"/>
+  <dimension ref="A1:I1992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70660,6 +70660,76 @@
         <v>136800</v>
       </c>
     </row>
+    <row r="1991">
+      <c r="A1991" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1991" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1991" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1991" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1991" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F1991" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G1991" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1991" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="I1991" t="n">
+        <v>253600</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1992" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1992" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1992" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1992" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F1992" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G1992" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H1992" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I1992" t="n">
+        <v>43100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1992"/>
+  <dimension ref="A1:I1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70730,6 +70730,41 @@
         <v>43100</v>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>36800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70765,6 +70765,111 @@
         <v>36800</v>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>299000</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1995" t="n">
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>49400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70870,6 +70870,41 @@
         <v>49400</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>113600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1997"/>
+  <dimension ref="A1:I1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70905,6 +70905,41 @@
         <v>113600</v>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>38400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0146.xlsx
+++ b/data/0146.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1998"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70940,6 +70940,111 @@
         <v>38400</v>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>279300</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>74600</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>0146</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>JFTECH</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>340700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
